--- a/Lab/Varying_MOI/jake_data4.xlsx
+++ b/Lab/Varying_MOI/jake_data4.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Career\PhD\Experiments\Optimisation of assay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsh1702140\Documents\University\R\mrsa_transduction\Lab\Varying_MOI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA94453-CA88-41D6-9123-0B08FC3B31E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{A25A25DC-E20B-4E30-8B67-8A90D26F6940}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CFU assay" sheetId="1" r:id="rId1"/>
     <sheet name="PFU assay" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,14 +33,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -303,7 +302,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -781,6 +780,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -857,6 +880,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -892,12 +918,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,6 +966,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -946,21 +984,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -971,6 +994,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -991,30 +1020,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1028,30 +1051,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1371,119 +1370,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E675D23-95D6-4704-A31D-767196B83E1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL79"/>
   <sheetViews>
     <sheetView topLeftCell="P28" zoomScale="58" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="X48" sqref="X48:X50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="17" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" hidden="1" customWidth="1"/>
-    <col min="6" max="8" width="12.453125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="9" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="11.54296875" customWidth="1"/>
-    <col min="13" max="13" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="9" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="15.90625" customWidth="1"/>
-    <col min="16" max="17" width="16.36328125" customWidth="1"/>
-    <col min="18" max="18" width="17.1796875" customWidth="1"/>
-    <col min="19" max="19" width="15.08984375" customWidth="1"/>
-    <col min="20" max="20" width="15.81640625" customWidth="1"/>
-    <col min="21" max="21" width="14.6328125" customWidth="1"/>
-    <col min="22" max="28" width="8.7265625" customWidth="1"/>
-    <col min="30" max="31" width="8.7265625" style="52"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="28" width="8.7109375" customWidth="1"/>
+    <col min="30" max="31" width="8.7109375" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="130" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="117" t="s">
+      <c r="E1" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="135" t="s">
+      <c r="I1" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="130" t="s">
+      <c r="K1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="68" t="s">
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="68" t="s">
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="110" t="s">
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="110" t="s">
+      <c r="V1" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="112" t="s">
+      <c r="W1" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="115" t="s">
+      <c r="X1" s="123"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="116"/>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="117" t="s">
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127" t="s">
         <v>44</v>
       </c>
       <c r="AD1"/>
       <c r="AE1"/>
     </row>
-    <row r="2" spans="1:38" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="129"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="131"/>
+    <row r="2" spans="1:38" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="137"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="139"/>
       <c r="L2" s="37">
         <v>1</v>
       </c>
@@ -1511,8 +1510,8 @@
       <c r="T2" s="37">
         <v>3</v>
       </c>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
       <c r="W2" s="38">
         <v>1</v>
       </c>
@@ -1531,22 +1530,22 @@
       <c r="AB2" s="46">
         <v>3</v>
       </c>
-      <c r="AC2" s="118"/>
+      <c r="AC2" s="128"/>
       <c r="AD2"/>
       <c r="AE2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A3" s="147" t="s">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="141">
+      <c r="C3" s="151">
         <f>C6*2.5</f>
         <v>4683333333.3332996</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="154" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="10">
@@ -1555,18 +1554,18 @@
       <c r="F3" s="11">
         <v>5</v>
       </c>
-      <c r="G3" s="142">
+      <c r="G3" s="152">
         <v>4000000</v>
       </c>
-      <c r="H3" s="142">
+      <c r="H3" s="152">
         <f>(C3*0.01)/5</f>
         <v>9366666.6666666009</v>
       </c>
-      <c r="I3" s="143">
+      <c r="I3" s="153">
         <f>H3/G3</f>
         <v>2.3416666666666504</v>
       </c>
-      <c r="J3" s="144">
+      <c r="J3" s="148">
         <v>10</v>
       </c>
       <c r="K3" s="47" t="s">
@@ -1606,31 +1605,31 @@
         <f t="shared" ref="U3:U48" si="3">(((O3/0.05)*10^L3)+((P3/0.05)*10^M3)+((Q3/0.05)*10^N3))/3</f>
         <v>5518000</v>
       </c>
-      <c r="V3" s="145">
+      <c r="V3" s="149">
         <v>250</v>
       </c>
-      <c r="W3" s="137">
-        <v>0</v>
-      </c>
-      <c r="X3" s="137">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="137">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="146">
+      <c r="W3" s="147">
+        <v>0</v>
+      </c>
+      <c r="X3" s="147">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="147">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="154">
         <f>W3*4</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="137">
+      <c r="AA3" s="147">
         <f t="shared" ref="AA3" si="4">X3*4</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="147">
+      <c r="AB3" s="155">
         <f t="shared" ref="AB3" si="5">Y3*4</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="147">
+      <c r="AC3" s="155">
         <f t="shared" ref="AC3" si="6">((Y3+W3+X3)/3)*(1000/V3)</f>
         <v>0</v>
       </c>
@@ -1641,17 +1640,17 @@
       <c r="AK3" s="61"/>
       <c r="AL3" s="61"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A4" s="96"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="107"/>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="105"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="117"/>
       <c r="E4" s="53"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="138"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="140"/>
       <c r="K4" s="48" t="s">
         <v>4</v>
       </c>
@@ -1689,14 +1688,14 @@
         <f t="shared" si="3"/>
         <v>4307333.333333333</v>
       </c>
-      <c r="V4" s="100"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="96"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
       <c r="AD4" s="52" t="s">
         <v>66</v>
       </c>
@@ -1709,17 +1708,17 @@
       <c r="AK4" s="61"/>
       <c r="AL4" s="61"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A5" s="96"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="107"/>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="105"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="117"/>
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="139"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="141"/>
       <c r="K5" s="43" t="s">
         <v>5</v>
       </c>
@@ -1757,14 +1756,14 @@
         <f t="shared" si="3"/>
         <v>1756666.6666666667</v>
       </c>
-      <c r="V5" s="106"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="97"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="118"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="106"/>
       <c r="AE5"/>
       <c r="AH5" s="61"/>
       <c r="AI5" s="61"/>
@@ -1772,34 +1771,34 @@
       <c r="AK5" s="61"/>
       <c r="AL5" s="61"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A6" s="96"/>
-      <c r="B6" s="91" t="s">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="105"/>
+      <c r="B6" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="86">
         <f>C9*2</f>
         <v>1873333333.3333199</v>
       </c>
-      <c r="D6" s="107"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="53">
         <v>10</v>
       </c>
       <c r="F6" s="7">
         <v>5</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="82">
         <v>4000000</v>
       </c>
-      <c r="H6" s="74">
+      <c r="H6" s="82">
         <f>(C6*0.01)/5</f>
         <v>3746666.6666666395</v>
       </c>
-      <c r="I6" s="123">
+      <c r="I6" s="115">
         <f>H6/G6</f>
         <v>0.93666666666665988</v>
       </c>
-      <c r="J6" s="138">
+      <c r="J6" s="140">
         <v>10</v>
       </c>
       <c r="K6" s="48" t="s">
@@ -1839,31 +1838,31 @@
         <f t="shared" si="3"/>
         <v>653333333.33333337</v>
       </c>
-      <c r="V6" s="100">
+      <c r="V6" s="109">
         <v>250</v>
       </c>
-      <c r="W6" s="119">
-        <v>0</v>
-      </c>
-      <c r="X6" s="119">
-        <v>6</v>
-      </c>
-      <c r="Y6" s="119">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="107">
+      <c r="W6" s="129">
+        <v>0</v>
+      </c>
+      <c r="X6" s="129">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="129">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="117">
         <f>W6*4</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="119">
+      <c r="AA6" s="129">
         <f t="shared" ref="AA6" si="7">X6*4</f>
         <v>24</v>
       </c>
-      <c r="AB6" s="96">
+      <c r="AB6" s="105">
         <f t="shared" ref="AB6" si="8">Y6*4</f>
         <v>24</v>
       </c>
-      <c r="AC6" s="96">
+      <c r="AC6" s="105">
         <f t="shared" ref="AC6" si="9">((Y6+W6+X6)/3)*(1000/V6)</f>
         <v>16</v>
       </c>
@@ -1877,17 +1876,17 @@
       <c r="AK6" s="61"/>
       <c r="AL6" s="61"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A7" s="96"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="107"/>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="105"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="117"/>
       <c r="E7" s="53"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="138"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="140"/>
       <c r="K7" s="48" t="s">
         <v>4</v>
       </c>
@@ -1925,14 +1924,14 @@
         <f t="shared" si="3"/>
         <v>306666666.66666669</v>
       </c>
-      <c r="V7" s="100"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="96"/>
-      <c r="AC7" s="96"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="129"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
       <c r="AD7" s="52" t="s">
         <v>66</v>
       </c>
@@ -1945,17 +1944,17 @@
       <c r="AK7" s="61"/>
       <c r="AL7" s="61"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A8" s="96"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="107"/>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="105"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="117"/>
       <c r="E8" s="2"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="139"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="141"/>
       <c r="K8" s="43" t="s">
         <v>5</v>
       </c>
@@ -1993,14 +1992,14 @@
         <f t="shared" si="3"/>
         <v>236666666.66666666</v>
       </c>
-      <c r="V8" s="106"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="97"/>
-      <c r="AC8" s="97"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="118"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
       <c r="AD8" s="52" t="s">
         <v>66</v>
       </c>
@@ -2011,34 +2010,34 @@
       <c r="AK8" s="61"/>
       <c r="AL8" s="61"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A9" s="96"/>
-      <c r="B9" s="91" t="s">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="105"/>
+      <c r="B9" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="86">
         <f>C12*2</f>
         <v>936666666.66665995</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="53">
         <v>10</v>
       </c>
       <c r="F9" s="7">
         <v>5</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="82">
         <v>4000000</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="82">
         <f>(C9*0.01)/5</f>
         <v>1873333.3333333198</v>
       </c>
-      <c r="I9" s="123">
+      <c r="I9" s="115">
         <f>H9/G9</f>
         <v>0.46833333333332994</v>
       </c>
-      <c r="J9" s="138">
+      <c r="J9" s="140">
         <v>10</v>
       </c>
       <c r="K9" s="48" t="s">
@@ -2078,31 +2077,31 @@
         <f>(((O9/0.05)*10^L9)+((P9/0.05)*10^M9)+((Q9/0.05)*10^N9))/3</f>
         <v>1540000000</v>
       </c>
-      <c r="V9" s="100">
+      <c r="V9" s="109">
         <v>250</v>
       </c>
-      <c r="W9" s="119">
+      <c r="W9" s="129">
         <v>7</v>
       </c>
-      <c r="X9" s="119">
+      <c r="X9" s="129">
         <v>8</v>
       </c>
-      <c r="Y9" s="119">
+      <c r="Y9" s="129">
         <v>5</v>
       </c>
-      <c r="Z9" s="107">
+      <c r="Z9" s="117">
         <f>W9*4</f>
         <v>28</v>
       </c>
-      <c r="AA9" s="119">
+      <c r="AA9" s="129">
         <f t="shared" ref="AA9" si="10">X9*4</f>
         <v>32</v>
       </c>
-      <c r="AB9" s="96">
+      <c r="AB9" s="105">
         <f t="shared" ref="AB9" si="11">Y9*4</f>
         <v>20</v>
       </c>
-      <c r="AC9" s="96">
+      <c r="AC9" s="105">
         <f t="shared" ref="AC9" si="12">((Y9+W9+X9)/3)*(1000/V9)</f>
         <v>26.666666666666668</v>
       </c>
@@ -2113,17 +2112,17 @@
       <c r="AK9" s="61"/>
       <c r="AL9" s="61"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A10" s="96"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="107"/>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="105"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="117"/>
       <c r="E10" s="53"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="138"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="140"/>
       <c r="K10" s="48" t="s">
         <v>4</v>
       </c>
@@ -2161,14 +2160,14 @@
         <f t="shared" si="3"/>
         <v>866666666.66666663</v>
       </c>
-      <c r="V10" s="100"/>
-      <c r="W10" s="119"/>
-      <c r="X10" s="119"/>
-      <c r="Y10" s="119"/>
-      <c r="Z10" s="107"/>
-      <c r="AA10" s="119"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="129"/>
+      <c r="AB10" s="105"/>
+      <c r="AC10" s="105"/>
       <c r="AD10" s="52" t="s">
         <v>65</v>
       </c>
@@ -2181,17 +2180,17 @@
       <c r="AK10" s="61"/>
       <c r="AL10" s="61"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A11" s="96"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="107"/>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="105"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="117"/>
       <c r="E11" s="2"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="139"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="141"/>
       <c r="K11" s="43" t="s">
         <v>5</v>
       </c>
@@ -2229,14 +2228,14 @@
         <f t="shared" si="3"/>
         <v>800000000</v>
       </c>
-      <c r="V11" s="106"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="97"/>
+      <c r="V11" s="114"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="118"/>
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
       <c r="AE11"/>
       <c r="AH11" s="61"/>
       <c r="AI11" s="61"/>
@@ -2244,34 +2243,34 @@
       <c r="AK11" s="61"/>
       <c r="AL11" s="61"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A12" s="96"/>
-      <c r="B12" s="91" t="s">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="105"/>
+      <c r="B12" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="86">
         <f>468333333.33333</f>
         <v>468333333.33332998</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="53">
         <v>10</v>
       </c>
       <c r="F12" s="7">
         <v>5</v>
       </c>
-      <c r="G12" s="74">
+      <c r="G12" s="82">
         <v>4000000</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="82">
         <f>(C12*0.01)/5</f>
         <v>936666.66666665988</v>
       </c>
-      <c r="I12" s="123">
+      <c r="I12" s="115">
         <f>H12/G12</f>
         <v>0.23416666666666497</v>
       </c>
-      <c r="J12" s="138">
+      <c r="J12" s="140">
         <v>10</v>
       </c>
       <c r="K12" s="48" t="s">
@@ -2311,31 +2310,31 @@
         <f t="shared" si="3"/>
         <v>1740000000</v>
       </c>
-      <c r="V12" s="100">
+      <c r="V12" s="109">
         <v>250</v>
       </c>
-      <c r="W12" s="119">
+      <c r="W12" s="129">
         <v>4</v>
       </c>
-      <c r="X12" s="119">
+      <c r="X12" s="129">
         <v>1</v>
       </c>
-      <c r="Y12" s="119">
+      <c r="Y12" s="129">
         <v>2</v>
       </c>
-      <c r="Z12" s="107">
+      <c r="Z12" s="117">
         <f>W12*4</f>
         <v>16</v>
       </c>
-      <c r="AA12" s="119">
+      <c r="AA12" s="129">
         <f t="shared" ref="AA12" si="13">X12*4</f>
         <v>4</v>
       </c>
-      <c r="AB12" s="96">
+      <c r="AB12" s="105">
         <f t="shared" ref="AB12" si="14">Y12*4</f>
         <v>8</v>
       </c>
-      <c r="AC12" s="96">
+      <c r="AC12" s="105">
         <f t="shared" ref="AC12" si="15">((Y12+W12+X12)/3)*(1000/V12)</f>
         <v>9.3333333333333339</v>
       </c>
@@ -2346,17 +2345,17 @@
       <c r="AK12" s="61"/>
       <c r="AL12" s="61"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A13" s="96"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="107"/>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="105"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="117"/>
       <c r="E13" s="53"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="138"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="140"/>
       <c r="K13" s="48" t="s">
         <v>4</v>
       </c>
@@ -2394,14 +2393,14 @@
         <f t="shared" si="3"/>
         <v>940000000</v>
       </c>
-      <c r="V13" s="100"/>
-      <c r="W13" s="119"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="119"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="129"/>
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="129"/>
+      <c r="AB13" s="105"/>
+      <c r="AC13" s="105"/>
       <c r="AD13" s="52" t="s">
         <v>64</v>
       </c>
@@ -2414,17 +2413,17 @@
       <c r="AK13" s="61"/>
       <c r="AL13" s="61"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A14" s="96"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="107"/>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="105"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="117"/>
       <c r="E14" s="2"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="139"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="141"/>
       <c r="K14" s="43" t="s">
         <v>5</v>
       </c>
@@ -2462,47 +2461,47 @@
         <f>(((O47/0.05)*10^L47)+((P47/0.05)*10^M47)+((Q14/0.05)*10^N47))/3</f>
         <v>1133333333.3333333</v>
       </c>
-      <c r="V14" s="106"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="108"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="97"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="118"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="106"/>
+      <c r="AC14" s="106"/>
       <c r="AE14"/>
       <c r="AJ14" s="53"/>
       <c r="AK14" s="53"/>
       <c r="AL14" s="53"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A15" s="96"/>
-      <c r="B15" s="91" t="s">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="105"/>
+      <c r="B15" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="86">
         <f>468333333.33333/2</f>
         <v>234166666.66666499</v>
       </c>
-      <c r="D15" s="107"/>
+      <c r="D15" s="117"/>
       <c r="E15" s="53">
         <v>10</v>
       </c>
       <c r="F15" s="7">
         <v>5</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="82">
         <v>4000000</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="82">
         <f>(C15*0.01)/5</f>
         <v>468333.33333332994</v>
       </c>
-      <c r="I15" s="123">
+      <c r="I15" s="115">
         <f>H15/G15</f>
         <v>0.11708333333333248</v>
       </c>
-      <c r="J15" s="138">
+      <c r="J15" s="140">
         <v>10</v>
       </c>
       <c r="K15" s="48" t="s">
@@ -2542,31 +2541,31 @@
         <f t="shared" si="3"/>
         <v>2580000000</v>
       </c>
-      <c r="V15" s="100">
+      <c r="V15" s="109">
         <v>250</v>
       </c>
-      <c r="W15" s="119">
+      <c r="W15" s="129">
         <v>2</v>
       </c>
-      <c r="X15" s="119">
+      <c r="X15" s="129">
         <v>2</v>
       </c>
-      <c r="Y15" s="119">
+      <c r="Y15" s="129">
         <v>3</v>
       </c>
-      <c r="Z15" s="107">
+      <c r="Z15" s="117">
         <f>W15*4</f>
         <v>8</v>
       </c>
-      <c r="AA15" s="119">
+      <c r="AA15" s="129">
         <f t="shared" ref="AA15:AB15" si="16">X15*4</f>
         <v>8</v>
       </c>
-      <c r="AB15" s="96">
+      <c r="AB15" s="105">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AC15" s="96">
+      <c r="AC15" s="105">
         <f t="shared" ref="AC15" si="17">((Y15+W15+X15)/3)*(1000/V15)</f>
         <v>9.3333333333333339</v>
       </c>
@@ -2575,16 +2574,16 @@
       <c r="AK15" s="53"/>
       <c r="AL15" s="53"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A16" s="96"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="107"/>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="105"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="117"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="138"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="140"/>
       <c r="K16" s="18" t="s">
         <v>4</v>
       </c>
@@ -2622,14 +2621,14 @@
         <f t="shared" si="3"/>
         <v>1206666666.6666667</v>
       </c>
-      <c r="V16" s="100"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="103"/>
+      <c r="Z16" s="117"/>
+      <c r="AA16" s="103"/>
+      <c r="AB16" s="105"/>
+      <c r="AC16" s="105"/>
       <c r="AD16" s="52" t="s">
         <v>64</v>
       </c>
@@ -2637,17 +2636,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A17" s="96"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="107"/>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="105"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="117"/>
       <c r="E17" s="2"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="139"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="141"/>
       <c r="K17" s="39" t="s">
         <v>5</v>
       </c>
@@ -2685,44 +2684,44 @@
         <f t="shared" si="3"/>
         <v>1013333333.3333334</v>
       </c>
-      <c r="V17" s="106"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="108"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="97"/>
-      <c r="AC17" s="97"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="106"/>
       <c r="AE17"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A18" s="96"/>
-      <c r="B18" s="90" t="s">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="105"/>
+      <c r="B18" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="77">
+      <c r="C18" s="85">
         <f>234166666.666665/2</f>
         <v>117083333.33333249</v>
       </c>
-      <c r="D18" s="107"/>
+      <c r="D18" s="117"/>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="F18" s="7">
         <v>5</v>
       </c>
-      <c r="G18" s="74">
+      <c r="G18" s="82">
         <v>4000000</v>
       </c>
-      <c r="H18" s="74">
+      <c r="H18" s="82">
         <f>H15/2</f>
         <v>234166.66666666497</v>
       </c>
-      <c r="I18" s="125">
+      <c r="I18" s="130">
         <f>H18/G18</f>
         <v>5.8541666666666242E-2</v>
       </c>
-      <c r="J18" s="130">
+      <c r="J18" s="138">
         <v>10</v>
       </c>
       <c r="K18" s="18" t="s">
@@ -2762,46 +2761,46 @@
         <f t="shared" si="3"/>
         <v>2006666666.6666667</v>
       </c>
-      <c r="V18" s="99">
+      <c r="V18" s="108">
         <v>250</v>
       </c>
-      <c r="W18" s="102">
+      <c r="W18" s="111">
         <v>3</v>
       </c>
-      <c r="X18" s="102">
+      <c r="X18" s="111">
         <v>2</v>
       </c>
-      <c r="Y18" s="102">
+      <c r="Y18" s="111">
         <v>1</v>
       </c>
-      <c r="Z18" s="107">
+      <c r="Z18" s="117">
         <f t="shared" ref="Z18:AB18" si="18">W18*4</f>
         <v>12</v>
       </c>
-      <c r="AA18" s="102">
+      <c r="AA18" s="111">
         <f t="shared" si="18"/>
         <v>8</v>
       </c>
-      <c r="AB18" s="98">
+      <c r="AB18" s="107">
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="AC18" s="98">
+      <c r="AC18" s="107">
         <f t="shared" ref="AC18" si="19">((Y18+W18+X18)/3)*(1000/V18)</f>
         <v>8</v>
       </c>
       <c r="AE18"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A19" s="96"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="107"/>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="105"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="117"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="138"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="140"/>
       <c r="K19" s="18" t="s">
         <v>4</v>
       </c>
@@ -2839,14 +2838,14 @@
         <f t="shared" si="3"/>
         <v>1146666666.6666667</v>
       </c>
-      <c r="V19" s="100"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="96"/>
+      <c r="V19" s="109"/>
+      <c r="W19" s="103"/>
+      <c r="X19" s="103"/>
+      <c r="Y19" s="103"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="103"/>
+      <c r="AB19" s="105"/>
+      <c r="AC19" s="105"/>
       <c r="AD19" s="52" t="s">
         <v>64</v>
       </c>
@@ -2854,17 +2853,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A20" s="96"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="107"/>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="105"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="117"/>
       <c r="E20" s="2"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="139"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="141"/>
       <c r="K20" s="39" t="s">
         <v>5</v>
       </c>
@@ -2902,44 +2901,44 @@
         <f t="shared" si="3"/>
         <v>1093333333.3333333</v>
       </c>
-      <c r="V20" s="106"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="108"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="97"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="106"/>
       <c r="AE20"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A21" s="96"/>
-      <c r="B21" s="90" t="s">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="105"/>
+      <c r="B21" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="77">
+      <c r="C21" s="85">
         <f>117083333.333332/2</f>
         <v>58541666.666666001</v>
       </c>
-      <c r="D21" s="107"/>
+      <c r="D21" s="117"/>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="F21" s="7">
         <v>5</v>
       </c>
-      <c r="G21" s="73">
+      <c r="G21" s="81">
         <v>4000000</v>
       </c>
-      <c r="H21" s="73">
+      <c r="H21" s="81">
         <f>H18/2</f>
         <v>117083.33333333248</v>
       </c>
-      <c r="I21" s="125">
+      <c r="I21" s="130">
         <f t="shared" ref="I21" si="20">H21/G21</f>
         <v>2.9270833333333121E-2</v>
       </c>
-      <c r="J21" s="84">
+      <c r="J21" s="92">
         <v>10</v>
       </c>
       <c r="K21" s="18" t="s">
@@ -2979,46 +2978,46 @@
         <f t="shared" si="3"/>
         <v>1786666666.6666667</v>
       </c>
-      <c r="V21" s="100">
+      <c r="V21" s="109">
         <v>250</v>
       </c>
-      <c r="W21" s="102">
+      <c r="W21" s="111">
         <v>1</v>
       </c>
-      <c r="X21" s="102">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="102">
+      <c r="X21" s="111">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="111">
         <v>1</v>
       </c>
-      <c r="Z21" s="107">
+      <c r="Z21" s="117">
         <f t="shared" ref="Z21:AB21" si="21">W21*4</f>
         <v>4</v>
       </c>
-      <c r="AA21" s="102">
+      <c r="AA21" s="111">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="98">
+      <c r="AB21" s="107">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="AC21" s="98">
+      <c r="AC21" s="107">
         <f t="shared" ref="AC21" si="22">((Y21+W21+X21)/3)*(1000/V21)</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="AE21"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A22" s="96"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="107"/>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="105"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="117"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="84"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="92"/>
       <c r="K22" s="18" t="s">
         <v>4</v>
       </c>
@@ -3056,14 +3055,14 @@
         <f t="shared" si="3"/>
         <v>1053333333.3333334</v>
       </c>
-      <c r="V22" s="100"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="103"/>
+      <c r="X22" s="103"/>
+      <c r="Y22" s="103"/>
+      <c r="Z22" s="117"/>
+      <c r="AA22" s="103"/>
+      <c r="AB22" s="105"/>
+      <c r="AC22" s="105"/>
       <c r="AD22" s="52" t="s">
         <v>64</v>
       </c>
@@ -3071,17 +3070,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A23" s="96"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="107"/>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="105"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="117"/>
       <c r="E23" s="2"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="89"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="97"/>
       <c r="K23" s="39" t="s">
         <v>5</v>
       </c>
@@ -3119,44 +3118,44 @@
         <f t="shared" si="3"/>
         <v>746666666.66666663</v>
       </c>
-      <c r="V23" s="106"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="108"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="97"/>
+      <c r="V23" s="114"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="104"/>
+      <c r="AB23" s="106"/>
+      <c r="AC23" s="106"/>
       <c r="AE23"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A24" s="96"/>
-      <c r="B24" s="90" t="s">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="105"/>
+      <c r="B24" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="85">
         <f>C21/2</f>
         <v>29270833.333333001</v>
       </c>
-      <c r="D24" s="107"/>
+      <c r="D24" s="117"/>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="F24" s="7">
         <v>5</v>
       </c>
-      <c r="G24" s="73">
+      <c r="G24" s="81">
         <v>4000000</v>
       </c>
-      <c r="H24" s="73">
+      <c r="H24" s="81">
         <f>H21/2</f>
         <v>58541.666666666242</v>
       </c>
-      <c r="I24" s="125">
+      <c r="I24" s="130">
         <f t="shared" ref="I24" si="23">H24/G24</f>
         <v>1.4635416666666561E-2</v>
       </c>
-      <c r="J24" s="83">
+      <c r="J24" s="91">
         <v>10</v>
       </c>
       <c r="K24" s="18" t="s">
@@ -3196,46 +3195,46 @@
         <f t="shared" si="3"/>
         <v>2546666666.6666665</v>
       </c>
-      <c r="V24" s="99">
+      <c r="V24" s="108">
         <v>250</v>
       </c>
-      <c r="W24" s="102">
-        <v>0</v>
-      </c>
-      <c r="X24" s="102">
+      <c r="W24" s="111">
+        <v>0</v>
+      </c>
+      <c r="X24" s="111">
         <v>1</v>
       </c>
-      <c r="Y24" s="102">
+      <c r="Y24" s="111">
         <v>1</v>
       </c>
-      <c r="Z24" s="107">
+      <c r="Z24" s="117">
         <f t="shared" ref="Z24:AB24" si="24">W24*4</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="102">
+      <c r="AA24" s="111">
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="AB24" s="98">
+      <c r="AB24" s="107">
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="AC24" s="98">
+      <c r="AC24" s="107">
         <f t="shared" ref="AC24" si="25">((Y24+W24+X24)/3)*(1000/V24)</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="AE24"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A25" s="96"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="107"/>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="105"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="117"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="84"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="92"/>
       <c r="K25" s="18" t="s">
         <v>4</v>
       </c>
@@ -3273,14 +3272,14 @@
         <f t="shared" si="3"/>
         <v>1260000000</v>
       </c>
-      <c r="V25" s="100"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="94"/>
-      <c r="Y25" s="94"/>
-      <c r="Z25" s="107"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="96"/>
+      <c r="V25" s="109"/>
+      <c r="W25" s="103"/>
+      <c r="X25" s="103"/>
+      <c r="Y25" s="103"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="103"/>
+      <c r="AB25" s="105"/>
+      <c r="AC25" s="105"/>
       <c r="AD25" s="52" t="s">
         <v>64</v>
       </c>
@@ -3288,17 +3287,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A26" s="96"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="107"/>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="105"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="117"/>
       <c r="E26" s="2"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="89"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="97"/>
       <c r="K26" s="39" t="s">
         <v>5</v>
       </c>
@@ -3336,44 +3335,44 @@
         <f t="shared" si="3"/>
         <v>1006666666.6666666</v>
       </c>
-      <c r="V26" s="106"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="108"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="97"/>
-      <c r="AC26" s="97"/>
+      <c r="V26" s="114"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="118"/>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="106"/>
       <c r="AE26"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A27" s="96"/>
-      <c r="B27" s="90" t="s">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="105"/>
+      <c r="B27" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="77">
+      <c r="C27" s="85">
         <f>C24/2</f>
         <v>14635416.6666665</v>
       </c>
-      <c r="D27" s="107"/>
+      <c r="D27" s="117"/>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="F27" s="7">
         <v>5</v>
       </c>
-      <c r="G27" s="73">
+      <c r="G27" s="81">
         <v>4000000</v>
       </c>
-      <c r="H27" s="73">
+      <c r="H27" s="81">
         <f>H24/2</f>
         <v>29270.833333333121</v>
       </c>
-      <c r="I27" s="125">
+      <c r="I27" s="130">
         <f t="shared" ref="I27" si="26">H27/G27</f>
         <v>7.3177083333332803E-3</v>
       </c>
-      <c r="J27" s="83">
+      <c r="J27" s="91">
         <v>10</v>
       </c>
       <c r="K27" s="18" t="s">
@@ -3414,46 +3413,46 @@
         <f t="shared" si="3"/>
         <v>2480000000</v>
       </c>
-      <c r="V27" s="99">
+      <c r="V27" s="108">
         <v>250</v>
       </c>
-      <c r="W27" s="102">
-        <v>0</v>
-      </c>
-      <c r="X27" s="102">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="107">
+      <c r="W27" s="111">
+        <v>0</v>
+      </c>
+      <c r="X27" s="111">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="111">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="117">
         <f t="shared" ref="Z27:AB27" si="27">W27*4</f>
         <v>0</v>
       </c>
-      <c r="AA27" s="102">
+      <c r="AA27" s="111">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="98">
+      <c r="AB27" s="107">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="98">
+      <c r="AC27" s="107">
         <f t="shared" ref="AC27" si="28">((Y27+W27+X27)/3)*(1000/V27)</f>
         <v>0</v>
       </c>
       <c r="AE27"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A28" s="96"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="107"/>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="105"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="117"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="84"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="92"/>
       <c r="K28" s="18" t="s">
         <v>4</v>
       </c>
@@ -3491,14 +3490,14 @@
         <f t="shared" si="3"/>
         <v>1320000000</v>
       </c>
-      <c r="V28" s="100"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="107"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
+      <c r="V28" s="109"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="103"/>
+      <c r="Z28" s="117"/>
+      <c r="AA28" s="103"/>
+      <c r="AB28" s="105"/>
+      <c r="AC28" s="105"/>
       <c r="AD28" s="52" t="s">
         <v>64</v>
       </c>
@@ -3506,17 +3505,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A29" s="96"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="107"/>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="105"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="117"/>
       <c r="E29" s="2"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="89"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="97"/>
       <c r="K29" s="39" t="s">
         <v>5</v>
       </c>
@@ -3554,44 +3553,44 @@
         <f t="shared" si="3"/>
         <v>1026666666.6666666</v>
       </c>
-      <c r="V29" s="106"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="108"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="97"/>
-      <c r="AC29" s="97"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="104"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="106"/>
       <c r="AE29"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A30" s="96"/>
-      <c r="B30" s="90" t="s">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="105"/>
+      <c r="B30" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="77">
+      <c r="C30" s="85">
         <f t="shared" ref="C30" si="29">C27/2</f>
         <v>7317708.3333332501</v>
       </c>
-      <c r="D30" s="107"/>
+      <c r="D30" s="117"/>
       <c r="E30">
         <v>10</v>
       </c>
       <c r="F30" s="7">
         <v>5</v>
       </c>
-      <c r="G30" s="73">
+      <c r="G30" s="81">
         <v>4000000</v>
       </c>
-      <c r="H30" s="73">
+      <c r="H30" s="81">
         <f>H27/2</f>
         <v>14635.416666666561</v>
       </c>
-      <c r="I30" s="80">
+      <c r="I30" s="88">
         <f t="shared" ref="I30" si="30">H30/G30</f>
         <v>3.6588541666666401E-3</v>
       </c>
-      <c r="J30" s="83">
+      <c r="J30" s="91">
         <v>10</v>
       </c>
       <c r="K30" s="18" t="s">
@@ -3631,46 +3630,46 @@
         <f t="shared" si="3"/>
         <v>1633333333.3333333</v>
       </c>
-      <c r="V30" s="100">
+      <c r="V30" s="109">
         <v>250</v>
       </c>
-      <c r="W30" s="102">
-        <v>0</v>
-      </c>
-      <c r="X30" s="102">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="107">
+      <c r="W30" s="111">
+        <v>0</v>
+      </c>
+      <c r="X30" s="111">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="111">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="117">
         <f t="shared" ref="Z30:AB30" si="31">W30*4</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="102">
+      <c r="AA30" s="111">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="98">
+      <c r="AB30" s="107">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="98">
+      <c r="AC30" s="107">
         <f t="shared" ref="AC30" si="32">((Y30+W30+X30)/3)*(1000/V30)</f>
         <v>0</v>
       </c>
       <c r="AE30"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A31" s="96"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="107"/>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="105"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="117"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="84"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="92"/>
       <c r="K31" s="18" t="s">
         <v>4</v>
       </c>
@@ -3708,14 +3707,14 @@
         <f t="shared" si="3"/>
         <v>966666666.66666663</v>
       </c>
-      <c r="V31" s="100"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="107"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="96"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="103"/>
+      <c r="X31" s="103"/>
+      <c r="Y31" s="103"/>
+      <c r="Z31" s="117"/>
+      <c r="AA31" s="103"/>
+      <c r="AB31" s="105"/>
+      <c r="AC31" s="105"/>
       <c r="AD31" s="52" t="s">
         <v>64</v>
       </c>
@@ -3723,17 +3722,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A32" s="96"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="107"/>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="105"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="117"/>
       <c r="E32" s="2"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="89"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="97"/>
       <c r="K32" s="39" t="s">
         <v>5</v>
       </c>
@@ -3771,44 +3770,44 @@
         <f t="shared" si="3"/>
         <v>833333333.33333337</v>
       </c>
-      <c r="V32" s="106"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="108"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="97"/>
-      <c r="AC32" s="97"/>
+      <c r="V32" s="114"/>
+      <c r="W32" s="104"/>
+      <c r="X32" s="104"/>
+      <c r="Y32" s="104"/>
+      <c r="Z32" s="118"/>
+      <c r="AA32" s="104"/>
+      <c r="AB32" s="106"/>
+      <c r="AC32" s="106"/>
       <c r="AE32"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A33" s="96"/>
-      <c r="B33" s="90" t="s">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A33" s="105"/>
+      <c r="B33" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="77">
+      <c r="C33" s="85">
         <f t="shared" ref="C33" si="33">C30/2</f>
         <v>3658854.1666666251</v>
       </c>
-      <c r="D33" s="107"/>
+      <c r="D33" s="117"/>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="F33" s="7">
         <v>5</v>
       </c>
-      <c r="G33" s="74">
+      <c r="G33" s="82">
         <v>4000000</v>
       </c>
-      <c r="H33" s="74">
+      <c r="H33" s="82">
         <f>H30/2</f>
         <v>7317.7083333332803</v>
       </c>
-      <c r="I33" s="80">
+      <c r="I33" s="88">
         <f t="shared" ref="I33" si="34">H33/G33</f>
         <v>1.8294270833333201E-3</v>
       </c>
-      <c r="J33" s="83">
+      <c r="J33" s="91">
         <v>10</v>
       </c>
       <c r="K33" s="36" t="s">
@@ -3848,46 +3847,46 @@
         <f t="shared" si="3"/>
         <v>1613333333.3333333</v>
       </c>
-      <c r="V33" s="99">
+      <c r="V33" s="108">
         <v>250</v>
       </c>
-      <c r="W33" s="102">
-        <v>0</v>
-      </c>
-      <c r="X33" s="102">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="107">
+      <c r="W33" s="111">
+        <v>0</v>
+      </c>
+      <c r="X33" s="111">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="111">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="117">
         <f t="shared" ref="Z33:AB33" si="35">W33*4</f>
         <v>0</v>
       </c>
-      <c r="AA33" s="102">
+      <c r="AA33" s="111">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="96">
+      <c r="AB33" s="105">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="98">
+      <c r="AC33" s="107">
         <f t="shared" ref="AC33" si="36">((Y33+W33+X33)/3)*(1000/V33)</f>
         <v>0</v>
       </c>
       <c r="AE33"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A34" s="96"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="107"/>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A34" s="105"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="117"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="84"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="92"/>
       <c r="K34" s="18" t="s">
         <v>4</v>
       </c>
@@ -3925,14 +3924,14 @@
         <f t="shared" si="3"/>
         <v>933333333.33333337</v>
       </c>
-      <c r="V34" s="100"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="107"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="96"/>
-      <c r="AC34" s="96"/>
+      <c r="V34" s="109"/>
+      <c r="W34" s="103"/>
+      <c r="X34" s="103"/>
+      <c r="Y34" s="103"/>
+      <c r="Z34" s="117"/>
+      <c r="AA34" s="103"/>
+      <c r="AB34" s="105"/>
+      <c r="AC34" s="105"/>
       <c r="AD34" s="52" t="s">
         <v>64</v>
       </c>
@@ -3940,17 +3939,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="96"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="109"/>
+    <row r="35" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="105"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="49"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="85"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="93"/>
       <c r="K35" s="37" t="s">
         <v>5</v>
       </c>
@@ -3988,26 +3987,26 @@
         <f t="shared" si="3"/>
         <v>826666666.66666663</v>
       </c>
-      <c r="V35" s="101"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="103"/>
-      <c r="Z35" s="109"/>
-      <c r="AA35" s="103"/>
-      <c r="AB35" s="104"/>
-      <c r="AC35" s="104"/>
+      <c r="V35" s="110"/>
+      <c r="W35" s="112"/>
+      <c r="X35" s="112"/>
+      <c r="Y35" s="112"/>
+      <c r="Z35" s="119"/>
+      <c r="AA35" s="112"/>
+      <c r="AB35" s="113"/>
+      <c r="AC35" s="113"/>
       <c r="AE35"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A36" s="96"/>
-      <c r="B36" s="140" t="s">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A36" s="105"/>
+      <c r="B36" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="141">
+      <c r="C36" s="151">
         <f>C39*2.5</f>
         <v>4683333333.3332996</v>
       </c>
-      <c r="D36" s="146" t="s">
+      <c r="D36" s="154" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="10">
@@ -4016,50 +4015,50 @@
       <c r="F36" s="11">
         <v>5</v>
       </c>
-      <c r="G36" s="142">
+      <c r="G36" s="152">
         <v>4000000</v>
       </c>
-      <c r="H36" s="142">
+      <c r="H36" s="152">
         <f>(C36*0.01)/5</f>
         <v>9366666.6666666009</v>
       </c>
-      <c r="I36" s="143">
+      <c r="I36" s="153">
         <f>H36/G36</f>
         <v>2.3416666666666504</v>
       </c>
-      <c r="J36" s="144">
+      <c r="J36" s="148">
         <v>10</v>
       </c>
       <c r="K36" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="L36" s="152">
+      <c r="L36" s="69">
         <v>4</v>
       </c>
-      <c r="M36" s="152">
+      <c r="M36" s="69">
         <v>4</v>
       </c>
-      <c r="N36" s="152">
+      <c r="N36" s="69">
         <v>3</v>
       </c>
-      <c r="O36" s="152">
+      <c r="O36" s="69">
         <v>45</v>
       </c>
-      <c r="P36" s="152">
+      <c r="P36" s="69">
         <v>41</v>
       </c>
-      <c r="Q36" s="152">
+      <c r="Q36" s="69">
         <v>47</v>
       </c>
-      <c r="R36" s="153">
+      <c r="R36" s="70">
         <f t="shared" si="37"/>
         <v>9000000</v>
       </c>
-      <c r="S36" s="153">
+      <c r="S36" s="70">
         <f t="shared" si="38"/>
         <v>8200000</v>
       </c>
-      <c r="T36" s="153">
+      <c r="T36" s="70">
         <f t="shared" si="39"/>
         <v>940000</v>
       </c>
@@ -4067,79 +4066,79 @@
         <f t="shared" si="3"/>
         <v>6046666.666666667</v>
       </c>
-      <c r="V36" s="145">
+      <c r="V36" s="149">
         <v>250</v>
       </c>
-      <c r="W36" s="137">
-        <v>0</v>
-      </c>
-      <c r="X36" s="137">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="137">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="146">
+      <c r="W36" s="147">
+        <v>0</v>
+      </c>
+      <c r="X36" s="147">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="147">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="154">
         <f>W36*4</f>
         <v>0</v>
       </c>
-      <c r="AA36" s="137">
+      <c r="AA36" s="147">
         <f t="shared" ref="AA36" si="40">X36*4</f>
         <v>0</v>
       </c>
-      <c r="AB36" s="147">
+      <c r="AB36" s="155">
         <f t="shared" ref="AB36" si="41">Y36*4</f>
         <v>0</v>
       </c>
-      <c r="AC36" s="147">
+      <c r="AC36" s="155">
         <f t="shared" ref="AC36" si="42">((Y36+W36+X36)/3)*(1000/V36)</f>
         <v>0</v>
       </c>
       <c r="AE36"/>
-      <c r="AH36" s="158"/>
-      <c r="AI36" s="158"/>
-      <c r="AJ36" s="158"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A37" s="96"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="107"/>
+      <c r="AH36" s="75"/>
+      <c r="AI36" s="75"/>
+      <c r="AJ36" s="75"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A37" s="105"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="117"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="138"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="140"/>
       <c r="K37" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="L37" s="154">
+      <c r="L37" s="71">
         <v>3</v>
       </c>
-      <c r="M37" s="154">
+      <c r="M37" s="71">
         <v>3</v>
       </c>
-      <c r="N37" s="154">
+      <c r="N37" s="71">
         <v>2</v>
       </c>
-      <c r="O37" s="154">
+      <c r="O37" s="71">
         <v>31</v>
       </c>
-      <c r="P37" s="154">
+      <c r="P37" s="71">
         <v>40</v>
       </c>
-      <c r="Q37" s="154">
+      <c r="Q37" s="71">
         <v>31</v>
       </c>
-      <c r="R37" s="155">
+      <c r="R37" s="72">
         <f t="shared" si="37"/>
         <v>620000</v>
       </c>
-      <c r="S37" s="155">
+      <c r="S37" s="72">
         <f t="shared" si="38"/>
         <v>800000</v>
       </c>
-      <c r="T37" s="155">
+      <c r="T37" s="72">
         <f t="shared" si="39"/>
         <v>62000</v>
       </c>
@@ -4147,14 +4146,14 @@
         <f t="shared" si="3"/>
         <v>494000</v>
       </c>
-      <c r="V37" s="100"/>
-      <c r="W37" s="119"/>
-      <c r="X37" s="119"/>
-      <c r="Y37" s="119"/>
-      <c r="Z37" s="107"/>
-      <c r="AA37" s="119"/>
-      <c r="AB37" s="96"/>
-      <c r="AC37" s="96"/>
+      <c r="V37" s="109"/>
+      <c r="W37" s="129"/>
+      <c r="X37" s="129"/>
+      <c r="Y37" s="129"/>
+      <c r="Z37" s="117"/>
+      <c r="AA37" s="129"/>
+      <c r="AB37" s="105"/>
+      <c r="AC37" s="105"/>
       <c r="AD37" s="52" t="s">
         <v>66</v>
       </c>
@@ -4165,47 +4164,47 @@
       <c r="AI37" s="61"/>
       <c r="AJ37" s="61"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A38" s="96"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="107"/>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A38" s="105"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="117"/>
       <c r="E38" s="2"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="139"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="141"/>
       <c r="K38" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L38" s="156">
+      <c r="L38" s="73">
         <v>4</v>
       </c>
-      <c r="M38" s="156">
+      <c r="M38" s="73">
         <v>4</v>
       </c>
-      <c r="N38" s="156">
+      <c r="N38" s="73">
         <v>3</v>
       </c>
-      <c r="O38" s="156">
+      <c r="O38" s="73">
         <v>30</v>
       </c>
       <c r="P38" s="64">
         <v>36</v>
       </c>
-      <c r="Q38" s="156">
+      <c r="Q38" s="73">
         <v>48</v>
       </c>
-      <c r="R38" s="157">
+      <c r="R38" s="74">
         <f>(O38/0.05)*10^L38</f>
         <v>6000000</v>
       </c>
-      <c r="S38" s="157">
+      <c r="S38" s="74">
         <f>(O38/0.05)*10^M38</f>
         <v>6000000</v>
       </c>
-      <c r="T38" s="157">
+      <c r="T38" s="74">
         <f t="shared" si="39"/>
         <v>960000</v>
       </c>
@@ -4213,47 +4212,47 @@
         <f t="shared" si="3"/>
         <v>4720000</v>
       </c>
-      <c r="V38" s="106"/>
-      <c r="W38" s="95"/>
-      <c r="X38" s="95"/>
-      <c r="Y38" s="95"/>
-      <c r="Z38" s="108"/>
-      <c r="AA38" s="95"/>
-      <c r="AB38" s="97"/>
-      <c r="AC38" s="97"/>
+      <c r="V38" s="114"/>
+      <c r="W38" s="104"/>
+      <c r="X38" s="104"/>
+      <c r="Y38" s="104"/>
+      <c r="Z38" s="118"/>
+      <c r="AA38" s="104"/>
+      <c r="AB38" s="106"/>
+      <c r="AC38" s="106"/>
       <c r="AE38"/>
       <c r="AH38" s="61"/>
       <c r="AI38" s="61"/>
       <c r="AJ38" s="61"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A39" s="96"/>
-      <c r="B39" s="91" t="s">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A39" s="105"/>
+      <c r="B39" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="78">
+      <c r="C39" s="86">
         <f>C42*2</f>
         <v>1873333333.3333199</v>
       </c>
-      <c r="D39" s="107"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="53">
         <v>10</v>
       </c>
       <c r="F39" s="7">
         <v>5</v>
       </c>
-      <c r="G39" s="74">
+      <c r="G39" s="82">
         <v>4000000</v>
       </c>
-      <c r="H39" s="74">
+      <c r="H39" s="82">
         <f>(C39*0.01)/5</f>
         <v>3746666.6666666395</v>
       </c>
-      <c r="I39" s="123">
+      <c r="I39" s="115">
         <f>H39/G39</f>
         <v>0.93666666666665988</v>
       </c>
-      <c r="J39" s="138">
+      <c r="J39" s="140">
         <v>10</v>
       </c>
       <c r="K39" s="48" t="s">
@@ -4294,31 +4293,31 @@
         <f t="shared" si="3"/>
         <v>386866666.66666669</v>
       </c>
-      <c r="V39" s="100">
+      <c r="V39" s="109">
         <v>250</v>
       </c>
-      <c r="W39" s="119">
-        <v>0</v>
-      </c>
-      <c r="X39" s="119">
+      <c r="W39" s="129">
+        <v>0</v>
+      </c>
+      <c r="X39" s="129">
         <v>210</v>
       </c>
-      <c r="Y39" s="119">
+      <c r="Y39" s="129">
         <v>2</v>
       </c>
-      <c r="Z39" s="107">
+      <c r="Z39" s="117">
         <f>W39*4</f>
         <v>0</v>
       </c>
-      <c r="AA39" s="119">
+      <c r="AA39" s="129">
         <f t="shared" ref="AA39" si="43">X39*4</f>
         <v>840</v>
       </c>
-      <c r="AB39" s="96">
+      <c r="AB39" s="105">
         <f t="shared" ref="AB39" si="44">Y39*4</f>
         <v>8</v>
       </c>
-      <c r="AC39" s="96">
+      <c r="AC39" s="105">
         <f t="shared" ref="AC39" si="45">((Y39+W39+X39)/3)*(1000/V39)</f>
         <v>282.66666666666669</v>
       </c>
@@ -4327,16 +4326,16 @@
       <c r="AI39" s="61"/>
       <c r="AJ39" s="61"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A40" s="96"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="107"/>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A40" s="105"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="117"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="138"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="140"/>
       <c r="K40" s="48" t="s">
         <v>4</v>
       </c>
@@ -4374,14 +4373,14 @@
         <f t="shared" si="3"/>
         <v>48533333.333333336</v>
       </c>
-      <c r="V40" s="100"/>
-      <c r="W40" s="119"/>
-      <c r="X40" s="119"/>
-      <c r="Y40" s="119"/>
-      <c r="Z40" s="107"/>
-      <c r="AA40" s="119"/>
-      <c r="AB40" s="96"/>
-      <c r="AC40" s="96"/>
+      <c r="V40" s="109"/>
+      <c r="W40" s="129"/>
+      <c r="X40" s="129"/>
+      <c r="Y40" s="129"/>
+      <c r="Z40" s="117"/>
+      <c r="AA40" s="129"/>
+      <c r="AB40" s="105"/>
+      <c r="AC40" s="105"/>
       <c r="AD40" s="52" t="s">
         <v>66</v>
       </c>
@@ -4392,17 +4391,17 @@
       <c r="AI40" s="61"/>
       <c r="AJ40" s="61"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A41" s="96"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="107"/>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A41" s="105"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="117"/>
       <c r="E41" s="2"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="139"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="141"/>
       <c r="K41" s="43" t="s">
         <v>5</v>
       </c>
@@ -4440,47 +4439,47 @@
         <f t="shared" si="3"/>
         <v>352000000</v>
       </c>
-      <c r="V41" s="106"/>
-      <c r="W41" s="95"/>
-      <c r="X41" s="95"/>
-      <c r="Y41" s="95"/>
-      <c r="Z41" s="108"/>
-      <c r="AA41" s="95"/>
-      <c r="AB41" s="97"/>
-      <c r="AC41" s="97"/>
+      <c r="V41" s="114"/>
+      <c r="W41" s="104"/>
+      <c r="X41" s="104"/>
+      <c r="Y41" s="104"/>
+      <c r="Z41" s="118"/>
+      <c r="AA41" s="104"/>
+      <c r="AB41" s="106"/>
+      <c r="AC41" s="106"/>
       <c r="AE41"/>
       <c r="AH41" s="61"/>
       <c r="AI41" s="61"/>
       <c r="AJ41" s="61"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A42" s="96"/>
-      <c r="B42" s="91" t="s">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A42" s="105"/>
+      <c r="B42" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="78">
+      <c r="C42" s="86">
         <f>C45*2</f>
         <v>936666666.66665995</v>
       </c>
-      <c r="D42" s="107"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="53">
         <v>10</v>
       </c>
       <c r="F42" s="7">
         <v>5</v>
       </c>
-      <c r="G42" s="74">
+      <c r="G42" s="82">
         <v>4000000</v>
       </c>
-      <c r="H42" s="74">
+      <c r="H42" s="82">
         <f>(C42*0.01)/5</f>
         <v>1873333.3333333198</v>
       </c>
-      <c r="I42" s="123">
+      <c r="I42" s="115">
         <f>H42/G42</f>
         <v>0.46833333333332994</v>
       </c>
-      <c r="J42" s="138">
+      <c r="J42" s="140">
         <v>10</v>
       </c>
       <c r="K42" s="48" t="s">
@@ -4520,31 +4519,31 @@
         <f t="shared" si="3"/>
         <v>1493333333.3333333</v>
       </c>
-      <c r="V42" s="100">
+      <c r="V42" s="109">
         <v>250</v>
       </c>
-      <c r="W42" s="119">
+      <c r="W42" s="129">
         <v>169</v>
       </c>
-      <c r="X42" s="119">
+      <c r="X42" s="129">
         <v>212</v>
       </c>
-      <c r="Y42" s="119">
+      <c r="Y42" s="129">
         <v>216</v>
       </c>
-      <c r="Z42" s="107">
+      <c r="Z42" s="117">
         <f>W42*4</f>
         <v>676</v>
       </c>
-      <c r="AA42" s="119">
+      <c r="AA42" s="129">
         <f t="shared" ref="AA42" si="46">X42*4</f>
         <v>848</v>
       </c>
-      <c r="AB42" s="96">
+      <c r="AB42" s="105">
         <f t="shared" ref="AB42" si="47">Y42*4</f>
         <v>864</v>
       </c>
-      <c r="AC42" s="96">
+      <c r="AC42" s="105">
         <f t="shared" ref="AC42" si="48">((Y42+W42+X42)/3)*(1000/V42)</f>
         <v>796</v>
       </c>
@@ -4553,16 +4552,16 @@
       <c r="AI42" s="61"/>
       <c r="AJ42" s="61"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A43" s="96"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="107"/>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43" s="105"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="117"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="138"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="140"/>
       <c r="K43" s="48" t="s">
         <v>4</v>
       </c>
@@ -4600,14 +4599,14 @@
         <f t="shared" si="3"/>
         <v>224000000</v>
       </c>
-      <c r="V43" s="100"/>
-      <c r="W43" s="119"/>
-      <c r="X43" s="119"/>
-      <c r="Y43" s="119"/>
-      <c r="Z43" s="107"/>
-      <c r="AA43" s="119"/>
-      <c r="AB43" s="96"/>
-      <c r="AC43" s="96"/>
+      <c r="V43" s="109"/>
+      <c r="W43" s="129"/>
+      <c r="X43" s="129"/>
+      <c r="Y43" s="129"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="129"/>
+      <c r="AB43" s="105"/>
+      <c r="AC43" s="105"/>
       <c r="AD43" s="52" t="s">
         <v>65</v>
       </c>
@@ -4618,17 +4617,17 @@
       <c r="AI43" s="61"/>
       <c r="AJ43" s="61"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A44" s="96"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="107"/>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A44" s="105"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="117"/>
       <c r="E44" s="2"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="139"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="141"/>
       <c r="K44" s="43" t="s">
         <v>5</v>
       </c>
@@ -4666,47 +4665,47 @@
         <f t="shared" si="3"/>
         <v>1066666666.6666666</v>
       </c>
-      <c r="V44" s="106"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="95"/>
-      <c r="Y44" s="95"/>
-      <c r="Z44" s="108"/>
-      <c r="AA44" s="95"/>
-      <c r="AB44" s="97"/>
-      <c r="AC44" s="97"/>
+      <c r="V44" s="114"/>
+      <c r="W44" s="104"/>
+      <c r="X44" s="104"/>
+      <c r="Y44" s="104"/>
+      <c r="Z44" s="118"/>
+      <c r="AA44" s="104"/>
+      <c r="AB44" s="106"/>
+      <c r="AC44" s="106"/>
       <c r="AE44"/>
       <c r="AH44" s="61"/>
       <c r="AI44" s="61"/>
       <c r="AJ44" s="61"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A45" s="96"/>
-      <c r="B45" s="91" t="s">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A45" s="105"/>
+      <c r="B45" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="78">
+      <c r="C45" s="86">
         <f>468333333.33333</f>
         <v>468333333.33332998</v>
       </c>
-      <c r="D45" s="107"/>
+      <c r="D45" s="117"/>
       <c r="E45" s="53">
         <v>10</v>
       </c>
       <c r="F45" s="7">
         <v>5</v>
       </c>
-      <c r="G45" s="74">
+      <c r="G45" s="82">
         <v>4000000</v>
       </c>
-      <c r="H45" s="74">
+      <c r="H45" s="82">
         <f>(C45*0.01)/5</f>
         <v>936666.66666665988</v>
       </c>
-      <c r="I45" s="123">
+      <c r="I45" s="115">
         <f>H45/G45</f>
         <v>0.23416666666666497</v>
       </c>
-      <c r="J45" s="138">
+      <c r="J45" s="140">
         <v>10</v>
       </c>
       <c r="K45" s="48" t="s">
@@ -4746,31 +4745,31 @@
         <f>(((O45/0.05)*10^L45)+((P45/0.05)*10^M45)+((Q45/0.05)*10^N45))/3</f>
         <v>2066666666.6666667</v>
       </c>
-      <c r="V45" s="100">
+      <c r="V45" s="109">
         <v>250</v>
       </c>
-      <c r="W45" s="119">
+      <c r="W45" s="129">
         <v>73</v>
       </c>
-      <c r="X45" s="119">
+      <c r="X45" s="129">
         <v>110</v>
       </c>
-      <c r="Y45" s="119">
+      <c r="Y45" s="129">
         <v>95</v>
       </c>
-      <c r="Z45" s="107">
+      <c r="Z45" s="117">
         <f>W45*4</f>
         <v>292</v>
       </c>
-      <c r="AA45" s="119">
+      <c r="AA45" s="129">
         <f t="shared" ref="AA45" si="49">X45*4</f>
         <v>440</v>
       </c>
-      <c r="AB45" s="96">
+      <c r="AB45" s="105">
         <f t="shared" ref="AB45" si="50">Y45*4</f>
         <v>380</v>
       </c>
-      <c r="AC45" s="96">
+      <c r="AC45" s="105">
         <f t="shared" ref="AC45" si="51">((Y45+W45+X45)/3)*(1000/V45)</f>
         <v>370.66666666666669</v>
       </c>
@@ -4779,16 +4778,16 @@
       <c r="AI45" s="61"/>
       <c r="AJ45" s="61"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A46" s="96"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="107"/>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A46" s="105"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="117"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="123"/>
-      <c r="J46" s="138"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="140"/>
       <c r="K46" s="48" t="s">
         <v>4</v>
       </c>
@@ -4826,14 +4825,14 @@
         <f t="shared" si="3"/>
         <v>346666666.66666669</v>
       </c>
-      <c r="V46" s="100"/>
-      <c r="W46" s="119"/>
-      <c r="X46" s="119"/>
-      <c r="Y46" s="119"/>
-      <c r="Z46" s="107"/>
-      <c r="AA46" s="119"/>
-      <c r="AB46" s="96"/>
-      <c r="AC46" s="96"/>
+      <c r="V46" s="109"/>
+      <c r="W46" s="129"/>
+      <c r="X46" s="129"/>
+      <c r="Y46" s="129"/>
+      <c r="Z46" s="117"/>
+      <c r="AA46" s="129"/>
+      <c r="AB46" s="105"/>
+      <c r="AC46" s="105"/>
       <c r="AD46" s="52" t="s">
         <v>64</v>
       </c>
@@ -4844,17 +4843,17 @@
       <c r="AI46" s="61"/>
       <c r="AJ46" s="61"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A47" s="96"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="107"/>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A47" s="105"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="117"/>
       <c r="E47" s="2"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="139"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="141"/>
       <c r="K47" s="43" t="s">
         <v>5</v>
       </c>
@@ -4892,45 +4891,45 @@
         <f t="shared" ref="U47" si="55">(((O47/0.05)*10^L47)+((P47/0.05)*10^M47)+((Q47/0.05)*10^N47))/3</f>
         <v>1566666666.6666667</v>
       </c>
-      <c r="V47" s="106"/>
-      <c r="W47" s="95"/>
-      <c r="X47" s="95"/>
-      <c r="Y47" s="95"/>
-      <c r="Z47" s="108"/>
-      <c r="AA47" s="95"/>
-      <c r="AB47" s="97"/>
-      <c r="AC47" s="97"/>
+      <c r="V47" s="114"/>
+      <c r="W47" s="104"/>
+      <c r="X47" s="104"/>
+      <c r="Y47" s="104"/>
+      <c r="Z47" s="118"/>
+      <c r="AA47" s="104"/>
+      <c r="AB47" s="106"/>
+      <c r="AC47" s="106"/>
       <c r="AE47"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A48" s="96"/>
-      <c r="B48" s="71" t="s">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A48" s="105"/>
+      <c r="B48" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="78">
+      <c r="C48" s="86">
         <f>468333333.33333/2</f>
         <v>234166666.66666499</v>
       </c>
-      <c r="D48" s="107"/>
+      <c r="D48" s="117"/>
       <c r="E48">
         <v>10</v>
       </c>
       <c r="F48" s="7">
         <v>5</v>
       </c>
-      <c r="G48" s="74">
+      <c r="G48" s="82">
         <f>G33</f>
         <v>4000000</v>
       </c>
-      <c r="H48" s="74">
+      <c r="H48" s="82">
         <f>(C48*0.01)/5</f>
         <v>468333.33333332994</v>
       </c>
-      <c r="I48" s="123">
+      <c r="I48" s="115">
         <f>H48/G48</f>
         <v>0.11708333333333248</v>
       </c>
-      <c r="J48" s="84">
+      <c r="J48" s="92">
         <v>10</v>
       </c>
       <c r="K48" s="18" t="s">
@@ -4970,45 +4969,45 @@
         <f t="shared" si="3"/>
         <v>1933333333.3333333</v>
       </c>
-      <c r="V48" s="100">
+      <c r="V48" s="109">
         <v>250</v>
       </c>
-      <c r="W48" s="94">
+      <c r="W48" s="103">
         <v>23</v>
       </c>
-      <c r="X48" s="94">
+      <c r="X48" s="103">
         <v>89</v>
       </c>
-      <c r="Y48" s="96">
+      <c r="Y48" s="105">
         <v>38</v>
       </c>
-      <c r="Z48" s="94">
+      <c r="Z48" s="103">
         <f t="shared" ref="Z48:AB48" si="56">W48*4</f>
         <v>92</v>
       </c>
-      <c r="AA48" s="94">
+      <c r="AA48" s="103">
         <f t="shared" si="56"/>
         <v>356</v>
       </c>
-      <c r="AB48" s="96">
+      <c r="AB48" s="105">
         <f t="shared" si="56"/>
         <v>152</v>
       </c>
-      <c r="AC48" s="96">
+      <c r="AC48" s="105">
         <f>((Y48+W48+X48)/3)*(1000/V48)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A49" s="96"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="107"/>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="105"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="117"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="84"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="92"/>
       <c r="K49" s="18" t="s">
         <v>4</v>
       </c>
@@ -5046,14 +5045,14 @@
         <f>(SUM(R49:T49))/3</f>
         <v>373333333.33333331</v>
       </c>
-      <c r="V49" s="100"/>
-      <c r="W49" s="94"/>
-      <c r="X49" s="94"/>
-      <c r="Y49" s="96"/>
-      <c r="Z49" s="94"/>
-      <c r="AA49" s="94"/>
-      <c r="AB49" s="96"/>
-      <c r="AC49" s="96"/>
+      <c r="V49" s="109"/>
+      <c r="W49" s="103"/>
+      <c r="X49" s="103"/>
+      <c r="Y49" s="105"/>
+      <c r="Z49" s="103"/>
+      <c r="AA49" s="103"/>
+      <c r="AB49" s="105"/>
+      <c r="AC49" s="105"/>
       <c r="AD49" s="52" t="s">
         <v>64</v>
       </c>
@@ -5061,17 +5060,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A50" s="96"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="107"/>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="105"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="117"/>
       <c r="E50" s="2"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="89"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="97"/>
       <c r="K50" s="39" t="s">
         <v>5</v>
       </c>
@@ -5109,44 +5108,44 @@
         <f>(((O50/0.05)*10^L50)+((P50/0.05)*10^M50)+((Q50/0.05)*10^N50))/3</f>
         <v>1500000000</v>
       </c>
-      <c r="V50" s="106"/>
-      <c r="W50" s="95"/>
-      <c r="X50" s="95"/>
-      <c r="Y50" s="97"/>
-      <c r="Z50" s="95"/>
-      <c r="AA50" s="95"/>
-      <c r="AB50" s="97"/>
-      <c r="AC50" s="97"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A51" s="96"/>
-      <c r="B51" s="70" t="s">
+      <c r="V50" s="114"/>
+      <c r="W50" s="104"/>
+      <c r="X50" s="104"/>
+      <c r="Y50" s="106"/>
+      <c r="Z50" s="104"/>
+      <c r="AA50" s="104"/>
+      <c r="AB50" s="106"/>
+      <c r="AC50" s="106"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="105"/>
+      <c r="B51" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="77">
+      <c r="C51" s="85">
         <f>234166666.666665/2</f>
         <v>117083333.33333249</v>
       </c>
-      <c r="D51" s="107"/>
+      <c r="D51" s="117"/>
       <c r="E51" s="1">
         <v>10</v>
       </c>
       <c r="F51" s="26">
         <v>5</v>
       </c>
-      <c r="G51" s="73">
+      <c r="G51" s="81">
         <f t="shared" ref="G51" si="57">G48</f>
         <v>4000000</v>
       </c>
-      <c r="H51" s="73">
+      <c r="H51" s="81">
         <f>H48/2</f>
         <v>234166.66666666497</v>
       </c>
-      <c r="I51" s="80">
+      <c r="I51" s="88">
         <f>H51/G51</f>
         <v>5.8541666666666242E-2</v>
       </c>
-      <c r="J51" s="83">
+      <c r="J51" s="91">
         <v>10</v>
       </c>
       <c r="K51" s="36" t="s">
@@ -5186,45 +5185,45 @@
         <f>SUM(R51:T51)/3</f>
         <v>2733333333.3333335</v>
       </c>
-      <c r="V51" s="99">
+      <c r="V51" s="108">
         <v>250</v>
       </c>
-      <c r="W51" s="102">
-        <v>6</v>
-      </c>
-      <c r="X51" s="102">
+      <c r="W51" s="111">
+        <v>6</v>
+      </c>
+      <c r="X51" s="111">
         <v>22</v>
       </c>
-      <c r="Y51" s="98">
+      <c r="Y51" s="107">
         <v>28</v>
       </c>
-      <c r="Z51" s="94">
+      <c r="Z51" s="103">
         <f t="shared" ref="Z51:AB51" si="58">W51*4</f>
         <v>24</v>
       </c>
-      <c r="AA51" s="94">
+      <c r="AA51" s="103">
         <f t="shared" si="58"/>
         <v>88</v>
       </c>
-      <c r="AB51" s="96">
+      <c r="AB51" s="105">
         <f t="shared" si="58"/>
         <v>112</v>
       </c>
-      <c r="AC51" s="98">
+      <c r="AC51" s="107">
         <f t="shared" ref="AC51" si="59">((Y51+W51+X51)/3)*(1000/V51)</f>
         <v>74.666666666666671</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A52" s="96"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="107"/>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="105"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="117"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="84"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="92"/>
       <c r="K52" s="18" t="s">
         <v>4</v>
       </c>
@@ -5262,14 +5261,14 @@
         <f>SUM(R52:T52)/3</f>
         <v>500000000</v>
       </c>
-      <c r="V52" s="100"/>
-      <c r="W52" s="94"/>
-      <c r="X52" s="94"/>
-      <c r="Y52" s="96"/>
-      <c r="Z52" s="94"/>
-      <c r="AA52" s="94"/>
-      <c r="AB52" s="96"/>
-      <c r="AC52" s="96"/>
+      <c r="V52" s="109"/>
+      <c r="W52" s="103"/>
+      <c r="X52" s="103"/>
+      <c r="Y52" s="105"/>
+      <c r="Z52" s="103"/>
+      <c r="AA52" s="103"/>
+      <c r="AB52" s="105"/>
+      <c r="AC52" s="105"/>
       <c r="AD52" s="52" t="s">
         <v>64</v>
       </c>
@@ -5277,17 +5276,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A53" s="96"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="107"/>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A53" s="105"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="2"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="89"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="97"/>
       <c r="K53" s="39" t="s">
         <v>5</v>
       </c>
@@ -5325,44 +5324,44 @@
         <f>(((O53/0.05)*10^L53)+((P53/0.05)*10^M53)+((Q53/0.05)*10^N53))/3</f>
         <v>1826666666.6666667</v>
       </c>
-      <c r="V53" s="106"/>
-      <c r="W53" s="95"/>
-      <c r="X53" s="95"/>
-      <c r="Y53" s="97"/>
-      <c r="Z53" s="95"/>
-      <c r="AA53" s="95"/>
-      <c r="AB53" s="97"/>
-      <c r="AC53" s="97"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A54" s="96"/>
-      <c r="B54" s="70" t="s">
+      <c r="V53" s="114"/>
+      <c r="W53" s="104"/>
+      <c r="X53" s="104"/>
+      <c r="Y53" s="106"/>
+      <c r="Z53" s="104"/>
+      <c r="AA53" s="104"/>
+      <c r="AB53" s="106"/>
+      <c r="AC53" s="106"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" s="105"/>
+      <c r="B54" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="77">
+      <c r="C54" s="85">
         <f>117083333.333332/2</f>
         <v>58541666.666666001</v>
       </c>
-      <c r="D54" s="107"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="1">
         <v>10</v>
       </c>
       <c r="F54" s="26">
         <v>5</v>
       </c>
-      <c r="G54" s="73">
+      <c r="G54" s="81">
         <f t="shared" ref="G54" si="60">G51</f>
         <v>4000000</v>
       </c>
-      <c r="H54" s="73">
+      <c r="H54" s="81">
         <f>H51/2</f>
         <v>117083.33333333248</v>
       </c>
-      <c r="I54" s="86">
+      <c r="I54" s="94">
         <f t="shared" ref="I54" si="61">H54/G54</f>
         <v>2.9270833333333121E-2</v>
       </c>
-      <c r="J54" s="83">
+      <c r="J54" s="91">
         <v>10</v>
       </c>
       <c r="K54" s="36" t="s">
@@ -5402,45 +5401,45 @@
         <f>(((O54/0.05)*10^L54)+((P54/0.05)*10^M54)+((Q54/0.05)*10^N54))/3</f>
         <v>2066666666.6666667</v>
       </c>
-      <c r="V54" s="100">
+      <c r="V54" s="109">
         <v>250</v>
       </c>
-      <c r="W54" s="102">
+      <c r="W54" s="111">
         <v>5</v>
       </c>
-      <c r="X54" s="102">
+      <c r="X54" s="111">
         <v>10</v>
       </c>
-      <c r="Y54" s="98">
+      <c r="Y54" s="107">
         <v>8</v>
       </c>
-      <c r="Z54" s="94">
+      <c r="Z54" s="103">
         <f t="shared" ref="Z54:AB54" si="62">W54*4</f>
         <v>20</v>
       </c>
-      <c r="AA54" s="94">
+      <c r="AA54" s="103">
         <f t="shared" si="62"/>
         <v>40</v>
       </c>
-      <c r="AB54" s="96">
+      <c r="AB54" s="105">
         <f t="shared" si="62"/>
         <v>32</v>
       </c>
-      <c r="AC54" s="98">
+      <c r="AC54" s="107">
         <f t="shared" ref="AC54" si="63">((Y54+W54+X54)/3)*(1000/V54)</f>
         <v>30.666666666666668</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A55" s="96"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="107"/>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" s="105"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="117"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="84"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="92"/>
       <c r="K55" s="18" t="s">
         <v>4</v>
       </c>
@@ -5478,14 +5477,14 @@
         <f>SUM(R55:T55)/3</f>
         <v>340000000</v>
       </c>
-      <c r="V55" s="100"/>
-      <c r="W55" s="94"/>
-      <c r="X55" s="94"/>
-      <c r="Y55" s="96"/>
-      <c r="Z55" s="94"/>
-      <c r="AA55" s="94"/>
-      <c r="AB55" s="96"/>
-      <c r="AC55" s="96"/>
+      <c r="V55" s="109"/>
+      <c r="W55" s="103"/>
+      <c r="X55" s="103"/>
+      <c r="Y55" s="105"/>
+      <c r="Z55" s="103"/>
+      <c r="AA55" s="103"/>
+      <c r="AB55" s="105"/>
+      <c r="AC55" s="105"/>
       <c r="AD55" s="52" t="s">
         <v>64</v>
       </c>
@@ -5493,17 +5492,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A56" s="96"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="107"/>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="105"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="2"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="89"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="97"/>
       <c r="K56" s="39" t="s">
         <v>5</v>
       </c>
@@ -5541,44 +5540,44 @@
         <f t="shared" ref="U56:U68" si="64">(((O56/0.05)*10^L56)+((P56/0.05)*10^M56)+((Q56/0.05)*10^N56))/3</f>
         <v>1480000000</v>
       </c>
-      <c r="V56" s="106"/>
-      <c r="W56" s="95"/>
-      <c r="X56" s="95"/>
-      <c r="Y56" s="97"/>
-      <c r="Z56" s="95"/>
-      <c r="AA56" s="95"/>
-      <c r="AB56" s="97"/>
-      <c r="AC56" s="97"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A57" s="96"/>
-      <c r="B57" s="70" t="s">
+      <c r="V56" s="114"/>
+      <c r="W56" s="104"/>
+      <c r="X56" s="104"/>
+      <c r="Y56" s="106"/>
+      <c r="Z56" s="104"/>
+      <c r="AA56" s="104"/>
+      <c r="AB56" s="106"/>
+      <c r="AC56" s="106"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="105"/>
+      <c r="B57" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="77">
+      <c r="C57" s="85">
         <f>C54/2</f>
         <v>29270833.333333001</v>
       </c>
-      <c r="D57" s="107"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="1">
         <v>10</v>
       </c>
       <c r="F57" s="26">
         <v>5</v>
       </c>
-      <c r="G57" s="73">
+      <c r="G57" s="81">
         <f t="shared" ref="G57" si="65">G54</f>
         <v>4000000</v>
       </c>
-      <c r="H57" s="73">
+      <c r="H57" s="81">
         <f>H54/2</f>
         <v>58541.666666666242</v>
       </c>
-      <c r="I57" s="80">
+      <c r="I57" s="88">
         <f t="shared" ref="I57" si="66">H57/G57</f>
         <v>1.4635416666666561E-2</v>
       </c>
-      <c r="J57" s="83">
+      <c r="J57" s="91">
         <v>10</v>
       </c>
       <c r="K57" s="36" t="s">
@@ -5618,45 +5617,45 @@
         <f t="shared" si="64"/>
         <v>2200000000</v>
       </c>
-      <c r="V57" s="99">
+      <c r="V57" s="108">
         <v>250</v>
       </c>
-      <c r="W57" s="102">
+      <c r="W57" s="111">
         <v>1</v>
       </c>
-      <c r="X57" s="102">
+      <c r="X57" s="111">
         <v>5</v>
       </c>
-      <c r="Y57" s="98">
+      <c r="Y57" s="107">
         <v>8</v>
       </c>
-      <c r="Z57" s="94">
+      <c r="Z57" s="103">
         <f t="shared" ref="Z57:AB57" si="67">W57*4</f>
         <v>4</v>
       </c>
-      <c r="AA57" s="94">
+      <c r="AA57" s="103">
         <f t="shared" si="67"/>
         <v>20</v>
       </c>
-      <c r="AB57" s="96">
+      <c r="AB57" s="105">
         <f t="shared" si="67"/>
         <v>32</v>
       </c>
-      <c r="AC57" s="98">
+      <c r="AC57" s="107">
         <f>((Y57+W57)/2)*(1000/V57)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A58" s="96"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="107"/>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="105"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="117"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="84"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="92"/>
       <c r="K58" s="18" t="s">
         <v>4</v>
       </c>
@@ -5694,14 +5693,14 @@
         <f t="shared" si="64"/>
         <v>340000000</v>
       </c>
-      <c r="V58" s="100"/>
-      <c r="W58" s="94"/>
-      <c r="X58" s="94"/>
-      <c r="Y58" s="96"/>
-      <c r="Z58" s="94"/>
-      <c r="AA58" s="94"/>
-      <c r="AB58" s="96"/>
-      <c r="AC58" s="96"/>
+      <c r="V58" s="109"/>
+      <c r="W58" s="103"/>
+      <c r="X58" s="103"/>
+      <c r="Y58" s="105"/>
+      <c r="Z58" s="103"/>
+      <c r="AA58" s="103"/>
+      <c r="AB58" s="105"/>
+      <c r="AC58" s="105"/>
       <c r="AD58" s="52" t="s">
         <v>64</v>
       </c>
@@ -5709,17 +5708,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A59" s="96"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="107"/>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59" s="105"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="2"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="105"/>
-      <c r="J59" s="89"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="102"/>
+      <c r="J59" s="97"/>
       <c r="K59" s="39" t="s">
         <v>5</v>
       </c>
@@ -5757,44 +5756,44 @@
         <f t="shared" si="64"/>
         <v>1333333333.3333333</v>
       </c>
-      <c r="V59" s="106"/>
-      <c r="W59" s="95"/>
-      <c r="X59" s="95"/>
-      <c r="Y59" s="97"/>
-      <c r="Z59" s="95"/>
-      <c r="AA59" s="95"/>
-      <c r="AB59" s="97"/>
-      <c r="AC59" s="97"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A60" s="96"/>
-      <c r="B60" s="70" t="s">
+      <c r="V59" s="114"/>
+      <c r="W59" s="104"/>
+      <c r="X59" s="104"/>
+      <c r="Y59" s="106"/>
+      <c r="Z59" s="104"/>
+      <c r="AA59" s="104"/>
+      <c r="AB59" s="106"/>
+      <c r="AC59" s="106"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A60" s="105"/>
+      <c r="B60" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="77" t="e">
+      <c r="C60" s="85" t="e">
         <f>#REF!/2</f>
         <v>#REF!</v>
       </c>
-      <c r="D60" s="107"/>
+      <c r="D60" s="117"/>
       <c r="E60" s="1">
         <v>10</v>
       </c>
       <c r="F60" s="26">
         <v>5</v>
       </c>
-      <c r="G60" s="73">
+      <c r="G60" s="81">
         <f>G57</f>
         <v>4000000</v>
       </c>
-      <c r="H60" s="73">
+      <c r="H60" s="81">
         <f>H57/2</f>
         <v>29270.833333333121</v>
       </c>
-      <c r="I60" s="80">
+      <c r="I60" s="88">
         <f>H60/G60</f>
         <v>7.3177083333332803E-3</v>
       </c>
-      <c r="J60" s="83">
+      <c r="J60" s="91">
         <v>10</v>
       </c>
       <c r="K60" s="36" t="s">
@@ -5834,45 +5833,45 @@
         <f t="shared" si="64"/>
         <v>1866666666.6666667</v>
       </c>
-      <c r="V60" s="99">
+      <c r="V60" s="108">
         <v>250</v>
       </c>
-      <c r="W60" s="102">
-        <v>0</v>
-      </c>
-      <c r="X60" s="102">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="98">
+      <c r="W60" s="111">
+        <v>0</v>
+      </c>
+      <c r="X60" s="111">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="107">
         <v>2</v>
       </c>
-      <c r="Z60" s="94">
+      <c r="Z60" s="103">
         <f t="shared" ref="Z60:AB60" si="68">W60*4</f>
         <v>0</v>
       </c>
-      <c r="AA60" s="94">
+      <c r="AA60" s="103">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="AB60" s="96">
+      <c r="AB60" s="105">
         <f t="shared" si="68"/>
         <v>8</v>
       </c>
-      <c r="AC60" s="98">
+      <c r="AC60" s="107">
         <f t="shared" ref="AC60" si="69">((Y60+W60+X60)/3)*(1000/V60)</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A61" s="96"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="107"/>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="105"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="117"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="84"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="82"/>
+      <c r="I61" s="89"/>
+      <c r="J61" s="92"/>
       <c r="K61" s="18" t="s">
         <v>4</v>
       </c>
@@ -5910,14 +5909,14 @@
         <f t="shared" si="64"/>
         <v>386666666.66666669</v>
       </c>
-      <c r="V61" s="100"/>
-      <c r="W61" s="94"/>
-      <c r="X61" s="94"/>
-      <c r="Y61" s="96"/>
-      <c r="Z61" s="94"/>
-      <c r="AA61" s="94"/>
-      <c r="AB61" s="96"/>
-      <c r="AC61" s="96"/>
+      <c r="V61" s="109"/>
+      <c r="W61" s="103"/>
+      <c r="X61" s="103"/>
+      <c r="Y61" s="105"/>
+      <c r="Z61" s="103"/>
+      <c r="AA61" s="103"/>
+      <c r="AB61" s="105"/>
+      <c r="AC61" s="105"/>
       <c r="AD61" s="52" t="s">
         <v>64</v>
       </c>
@@ -5925,17 +5924,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A62" s="96"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="107"/>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="105"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="117"/>
       <c r="E62" s="2"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="105"/>
-      <c r="J62" s="89"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="97"/>
       <c r="K62" s="39" t="s">
         <v>5</v>
       </c>
@@ -5973,44 +5972,44 @@
         <f t="shared" si="64"/>
         <v>1733333333.3333333</v>
       </c>
-      <c r="V62" s="106"/>
-      <c r="W62" s="95"/>
-      <c r="X62" s="95"/>
-      <c r="Y62" s="97"/>
-      <c r="Z62" s="95"/>
-      <c r="AA62" s="95"/>
-      <c r="AB62" s="97"/>
-      <c r="AC62" s="97"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A63" s="96"/>
-      <c r="B63" s="70" t="s">
+      <c r="V62" s="114"/>
+      <c r="W62" s="104"/>
+      <c r="X62" s="104"/>
+      <c r="Y62" s="106"/>
+      <c r="Z62" s="104"/>
+      <c r="AA62" s="104"/>
+      <c r="AB62" s="106"/>
+      <c r="AC62" s="106"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63" s="105"/>
+      <c r="B63" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="77" t="e">
+      <c r="C63" s="85" t="e">
         <f t="shared" ref="C63" si="70">C60/2</f>
         <v>#REF!</v>
       </c>
-      <c r="D63" s="107"/>
+      <c r="D63" s="117"/>
       <c r="E63" s="1">
         <v>10</v>
       </c>
       <c r="F63" s="26">
         <v>5</v>
       </c>
-      <c r="G63" s="73">
+      <c r="G63" s="81">
         <f t="shared" ref="G63" si="71">G60</f>
         <v>4000000</v>
       </c>
-      <c r="H63" s="73">
+      <c r="H63" s="81">
         <f>H60/2</f>
         <v>14635.416666666561</v>
       </c>
-      <c r="I63" s="80">
+      <c r="I63" s="88">
         <f t="shared" ref="I63" si="72">H63/G63</f>
         <v>3.6588541666666401E-3</v>
       </c>
-      <c r="J63" s="83">
+      <c r="J63" s="91">
         <v>10</v>
       </c>
       <c r="K63" s="36" t="s">
@@ -6050,45 +6049,45 @@
         <f t="shared" si="64"/>
         <v>1693333333.3333333</v>
       </c>
-      <c r="V63" s="100">
+      <c r="V63" s="109">
         <v>250</v>
       </c>
-      <c r="W63" s="102">
-        <v>0</v>
-      </c>
-      <c r="X63" s="102">
+      <c r="W63" s="111">
+        <v>0</v>
+      </c>
+      <c r="X63" s="111">
         <v>2</v>
       </c>
-      <c r="Y63" s="98">
+      <c r="Y63" s="107">
         <v>2</v>
       </c>
-      <c r="Z63" s="94">
+      <c r="Z63" s="103">
         <f t="shared" ref="Z63:AB63" si="76">W63*4</f>
         <v>0</v>
       </c>
-      <c r="AA63" s="94">
+      <c r="AA63" s="103">
         <f t="shared" si="76"/>
         <v>8</v>
       </c>
-      <c r="AB63" s="96">
+      <c r="AB63" s="105">
         <f t="shared" si="76"/>
         <v>8</v>
       </c>
-      <c r="AC63" s="98">
+      <c r="AC63" s="107">
         <f t="shared" ref="AC63" si="77">((Y63+W63+X63)/3)*(1000/V63)</f>
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A64" s="96"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="107"/>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64" s="105"/>
+      <c r="B64" s="79"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="117"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="81"/>
-      <c r="J64" s="84"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="82"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="92"/>
       <c r="K64" s="18" t="s">
         <v>4</v>
       </c>
@@ -6126,14 +6125,14 @@
         <f t="shared" si="64"/>
         <v>386666666.66666669</v>
       </c>
-      <c r="V64" s="100"/>
-      <c r="W64" s="94"/>
-      <c r="X64" s="94"/>
-      <c r="Y64" s="96"/>
-      <c r="Z64" s="94"/>
-      <c r="AA64" s="94"/>
-      <c r="AB64" s="96"/>
-      <c r="AC64" s="96"/>
+      <c r="V64" s="109"/>
+      <c r="W64" s="103"/>
+      <c r="X64" s="103"/>
+      <c r="Y64" s="105"/>
+      <c r="Z64" s="103"/>
+      <c r="AA64" s="103"/>
+      <c r="AB64" s="105"/>
+      <c r="AC64" s="105"/>
       <c r="AD64" s="52" t="s">
         <v>64</v>
       </c>
@@ -6141,17 +6140,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A65" s="96"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="107"/>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A65" s="105"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="117"/>
       <c r="E65" s="2"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="75"/>
-      <c r="I65" s="105"/>
-      <c r="J65" s="89"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="102"/>
+      <c r="J65" s="97"/>
       <c r="K65" s="39" t="s">
         <v>5</v>
       </c>
@@ -6189,44 +6188,44 @@
         <f t="shared" si="64"/>
         <v>1386666666.6666667</v>
       </c>
-      <c r="V65" s="106"/>
-      <c r="W65" s="95"/>
-      <c r="X65" s="95"/>
-      <c r="Y65" s="97"/>
-      <c r="Z65" s="95"/>
-      <c r="AA65" s="95"/>
-      <c r="AB65" s="97"/>
-      <c r="AC65" s="97"/>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A66" s="96"/>
-      <c r="B66" s="70" t="s">
+      <c r="V65" s="114"/>
+      <c r="W65" s="104"/>
+      <c r="X65" s="104"/>
+      <c r="Y65" s="106"/>
+      <c r="Z65" s="104"/>
+      <c r="AA65" s="104"/>
+      <c r="AB65" s="106"/>
+      <c r="AC65" s="106"/>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A66" s="105"/>
+      <c r="B66" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C66" s="73" t="e">
+      <c r="C66" s="81" t="e">
         <f t="shared" ref="C66" si="78">C63/2</f>
         <v>#REF!</v>
       </c>
-      <c r="D66" s="107"/>
+      <c r="D66" s="117"/>
       <c r="E66" s="1">
         <v>10</v>
       </c>
       <c r="F66" s="26">
         <v>5</v>
       </c>
-      <c r="G66" s="73">
+      <c r="G66" s="81">
         <f>G63</f>
         <v>4000000</v>
       </c>
-      <c r="H66" s="77">
+      <c r="H66" s="85">
         <f>H63/2</f>
         <v>7317.7083333332803</v>
       </c>
-      <c r="I66" s="80">
+      <c r="I66" s="88">
         <f t="shared" ref="I66" si="79">H66/G66</f>
         <v>1.8294270833333201E-3</v>
       </c>
-      <c r="J66" s="83">
+      <c r="J66" s="91">
         <v>10</v>
       </c>
       <c r="K66" s="36" t="s">
@@ -6266,45 +6265,45 @@
         <f t="shared" si="64"/>
         <v>2200000000</v>
       </c>
-      <c r="V66" s="99">
+      <c r="V66" s="108">
         <v>250</v>
       </c>
-      <c r="W66" s="102">
-        <v>0</v>
-      </c>
-      <c r="X66" s="102">
+      <c r="W66" s="111">
+        <v>0</v>
+      </c>
+      <c r="X66" s="111">
         <v>3</v>
       </c>
-      <c r="Y66" s="98">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="102">
+      <c r="Y66" s="107">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="111">
         <f t="shared" ref="Z66:AB66" si="80">W66*4</f>
         <v>0</v>
       </c>
-      <c r="AA66" s="102">
+      <c r="AA66" s="111">
         <f t="shared" si="80"/>
         <v>12</v>
       </c>
-      <c r="AB66" s="98">
+      <c r="AB66" s="107">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AC66" s="98">
+      <c r="AC66" s="107">
         <f t="shared" ref="AC66" si="81">((Y66+W66+X66)/3)*(1000/V66)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A67" s="96"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="107"/>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A67" s="105"/>
+      <c r="B67" s="79"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="117"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="81"/>
-      <c r="J67" s="84"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="86"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="92"/>
       <c r="K67" s="18" t="s">
         <v>4</v>
       </c>
@@ -6342,14 +6341,14 @@
         <f t="shared" si="64"/>
         <v>493333333.33333331</v>
       </c>
-      <c r="V67" s="100"/>
-      <c r="W67" s="94"/>
-      <c r="X67" s="94"/>
-      <c r="Y67" s="96"/>
-      <c r="Z67" s="94"/>
-      <c r="AA67" s="94"/>
-      <c r="AB67" s="96"/>
-      <c r="AC67" s="96"/>
+      <c r="V67" s="109"/>
+      <c r="W67" s="103"/>
+      <c r="X67" s="103"/>
+      <c r="Y67" s="105"/>
+      <c r="Z67" s="103"/>
+      <c r="AA67" s="103"/>
+      <c r="AB67" s="105"/>
+      <c r="AC67" s="105"/>
       <c r="AD67" s="52" t="s">
         <v>64</v>
       </c>
@@ -6357,17 +6356,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="97"/>
-      <c r="B68" s="72"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="108"/>
+    <row r="68" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="106"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="118"/>
       <c r="E68" s="2"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="79"/>
-      <c r="I68" s="82"/>
-      <c r="J68" s="85"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="87"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="93"/>
       <c r="K68" s="37" t="s">
         <v>5</v>
       </c>
@@ -6405,20 +6404,20 @@
         <f t="shared" si="64"/>
         <v>2053333333.3333333</v>
       </c>
-      <c r="V68" s="101"/>
-      <c r="W68" s="103"/>
-      <c r="X68" s="103"/>
-      <c r="Y68" s="104"/>
-      <c r="Z68" s="103"/>
-      <c r="AA68" s="103"/>
-      <c r="AB68" s="104"/>
-      <c r="AC68" s="104"/>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="V68" s="110"/>
+      <c r="W68" s="112"/>
+      <c r="X68" s="112"/>
+      <c r="Y68" s="113"/>
+      <c r="Z68" s="112"/>
+      <c r="AA68" s="112"/>
+      <c r="AB68" s="113"/>
+      <c r="AC68" s="113"/>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I70"/>
       <c r="J70"/>
       <c r="AF70">
@@ -6430,11 +6429,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I71"/>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I72"/>
       <c r="J72"/>
       <c r="AG72">
@@ -6444,7 +6443,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I73"/>
       <c r="J73"/>
       <c r="AG73">
@@ -6455,7 +6454,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AG75">
         <f>AG72+AG73</f>
         <v>192</v>
@@ -6464,7 +6463,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AG76">
         <v>2880</v>
       </c>
@@ -6472,7 +6471,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AG79">
         <f>AG76/4</f>
         <v>720</v>
@@ -6523,6 +6522,29 @@
     <mergeCell ref="AA39:AA41"/>
     <mergeCell ref="AB39:AB41"/>
     <mergeCell ref="AC39:AC41"/>
+    <mergeCell ref="AA36:AA38"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="Z6:Z8"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="W9:W11"/>
+    <mergeCell ref="X9:X11"/>
+    <mergeCell ref="Y9:Y11"/>
+    <mergeCell ref="Z9:Z11"/>
+    <mergeCell ref="AA9:AA11"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="V27:V29"/>
+    <mergeCell ref="W27:W29"/>
+    <mergeCell ref="V30:V32"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="V6:V8"/>
     <mergeCell ref="H12:H14"/>
@@ -6531,28 +6553,10 @@
     <mergeCell ref="V12:V14"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="I18:I20"/>
-    <mergeCell ref="AA36:AA38"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="A3:A68"/>
-    <mergeCell ref="D3:D35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="Z6:Z8"/>
-    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
     <mergeCell ref="AB6:AB8"/>
     <mergeCell ref="AC6:AC8"/>
     <mergeCell ref="B3:B5"/>
@@ -6571,15 +6575,8 @@
     <mergeCell ref="AC3:AC5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="W9:W11"/>
-    <mergeCell ref="X9:X11"/>
-    <mergeCell ref="Y9:Y11"/>
-    <mergeCell ref="Z9:Z11"/>
-    <mergeCell ref="AA9:AA11"/>
-    <mergeCell ref="AB9:AB11"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
     <mergeCell ref="V33:V35"/>
     <mergeCell ref="W33:W35"/>
     <mergeCell ref="V48:V50"/>
@@ -6596,6 +6593,14 @@
     <mergeCell ref="V36:V38"/>
     <mergeCell ref="J42:J44"/>
     <mergeCell ref="V42:V44"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
@@ -6605,14 +6610,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="J27:J29"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="J15:J17"/>
@@ -6629,13 +6626,14 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="H9:H11"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="V27:V29"/>
-    <mergeCell ref="W27:W29"/>
-    <mergeCell ref="V30:V32"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A3:A68"/>
+    <mergeCell ref="D3:D35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="I42:I44"/>
     <mergeCell ref="W30:W32"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="H21:H23"/>
@@ -6654,6 +6652,12 @@
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="C60:C62"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="V24:V26"/>
+    <mergeCell ref="W24:W26"/>
+    <mergeCell ref="V54:V56"/>
+    <mergeCell ref="W54:W56"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:Y1"/>
@@ -6677,8 +6681,7 @@
     <mergeCell ref="AB12:AB14"/>
     <mergeCell ref="AC12:AC14"/>
     <mergeCell ref="AC9:AC11"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="AB9:AB11"/>
     <mergeCell ref="X18:X20"/>
     <mergeCell ref="Y18:Y20"/>
     <mergeCell ref="Z18:Z20"/>
@@ -6693,8 +6696,6 @@
     <mergeCell ref="AA21:AA23"/>
     <mergeCell ref="AB21:AB23"/>
     <mergeCell ref="AC21:AC23"/>
-    <mergeCell ref="V24:V26"/>
-    <mergeCell ref="W24:W26"/>
     <mergeCell ref="X24:X26"/>
     <mergeCell ref="Y24:Y26"/>
     <mergeCell ref="Z24:Z26"/>
@@ -6743,8 +6744,6 @@
     <mergeCell ref="G48:G50"/>
     <mergeCell ref="J48:J50"/>
     <mergeCell ref="I48:I50"/>
-    <mergeCell ref="V54:V56"/>
-    <mergeCell ref="W54:W56"/>
     <mergeCell ref="X54:X56"/>
     <mergeCell ref="Y54:Y56"/>
     <mergeCell ref="Z54:Z56"/>
@@ -6815,365 +6814,55 @@
     <mergeCell ref="B18:B20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="U12:U14">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC12:AC14">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U9:U11">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC9:AC11">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U6:U8">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC6:AC8">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U5">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3:AC5">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U45:U46">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC45:AC47">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U42:U44">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC42:AC44">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U39:U41">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC39:AC41">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC36:AC38">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC15:AC35">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U48:U68 U15:U35">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC48:AC68">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U36:U38">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U47">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U68">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB60252-9756-4575-8171-7EEC2E26B25A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.453125" customWidth="1"/>
-    <col min="6" max="10" width="8.7265625" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="68" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="133" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="133"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="130" t="s">
+      <c r="I1" s="143"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="138" t="s">
         <v>27</v>
       </c>
       <c r="P1" s="52"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="150"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="158"/>
       <c r="B2" s="15">
         <v>1</v>
       </c>
@@ -7201,13 +6890,13 @@
       <c r="J2">
         <v>3</v>
       </c>
-      <c r="K2" s="139"/>
+      <c r="K2" s="141"/>
       <c r="O2" s="52"/>
       <c r="P2" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>61</v>
       </c>
@@ -7220,22 +6909,22 @@
       <c r="D3" s="22">
         <v>8</v>
       </c>
-      <c r="E3" s="21">
-        <v>57</v>
+      <c r="E3" s="1">
+        <v>8</v>
       </c>
       <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="26">
+        <v>2</v>
+      </c>
+      <c r="G3" s="22">
         <v>0</v>
       </c>
       <c r="H3" s="29">
         <f t="shared" ref="H3:H6" si="0">E3*10^(1+B3)</f>
-        <v>57000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="I3" s="29">
         <f t="shared" ref="I3:I6" si="1">F3*10^(1+C3)</f>
-        <v>3000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="J3" s="29">
         <f t="shared" ref="J3:J8" si="2">G3*10^(1+D3)</f>
@@ -7243,7 +6932,7 @@
       </c>
       <c r="K3" s="13">
         <f>SUM(H3:J3)/3</f>
-        <v>20000000000</v>
+        <v>3333333333.3333335</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>56</v>
@@ -7256,7 +6945,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>60</v>
       </c>
@@ -7302,7 +6991,7 @@
       </c>
       <c r="P4" s="60"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>59</v>
       </c>
@@ -7350,7 +7039,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>58</v>
       </c>
@@ -7399,7 +7088,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>29</v>
       </c>
@@ -7445,7 +7134,7 @@
       </c>
       <c r="P7" s="60"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>30</v>
       </c>
@@ -7493,7 +7182,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>31</v>
       </c>
@@ -7542,7 +7231,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>32</v>
       </c>
@@ -7588,7 +7277,7 @@
       </c>
       <c r="P10" s="20"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>33</v>
       </c>
@@ -7634,7 +7323,7 @@
       </c>
       <c r="P11" s="20"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>34</v>
       </c>
@@ -7680,7 +7369,7 @@
       </c>
       <c r="P12" s="20"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>35</v>
       </c>
@@ -7726,7 +7415,7 @@
       </c>
       <c r="P13" s="20"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>61</v>
       </c>
@@ -7765,12 +7454,12 @@
         <f t="shared" si="10"/>
         <v>119000000000</v>
       </c>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-    </row>
-    <row r="15" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>60</v>
       </c>
@@ -7808,12 +7497,12 @@
         <f t="shared" si="10"/>
         <v>133333333.33333333</v>
       </c>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>59</v>
       </c>
@@ -7851,12 +7540,12 @@
         <f t="shared" si="10"/>
         <v>10000000</v>
       </c>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="151"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>58</v>
       </c>
@@ -7894,12 +7583,12 @@
         <f t="shared" ref="K17" si="11">SUM(H17:J17)/3</f>
         <v>14233333.333333334</v>
       </c>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="151"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>36</v>
       </c>
@@ -7937,12 +7626,12 @@
         <f>SUM(H18:J18)/3</f>
         <v>6700000</v>
       </c>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>37</v>
       </c>
@@ -7980,12 +7669,12 @@
         <f>SUM(H19:J19)/3</f>
         <v>200000</v>
       </c>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>38</v>
       </c>
@@ -8024,12 +7713,12 @@
         <f>SUM(H20:J20)/3</f>
         <v>1353333.3333333333</v>
       </c>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="151"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>39</v>
       </c>
@@ -8067,12 +7756,12 @@
         <f t="shared" ref="K21" si="12">SUM(H21:J21)/3</f>
         <v>676666.66666666663</v>
       </c>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="151"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>40</v>
       </c>
@@ -8110,12 +7799,12 @@
         <f>SUM(H22:J22)/3</f>
         <v>466666.66666666669</v>
       </c>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="151"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>41</v>
       </c>
@@ -8153,12 +7842,12 @@
         <f>SUM(H23:J23)/3</f>
         <v>116666.66666666667</v>
       </c>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="151"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>42</v>
       </c>
@@ -8194,20 +7883,20 @@
         <f>SUM(H24:I24)/2</f>
         <v>231000</v>
       </c>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="151"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O25" s="52"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>8</v>
       </c>
